--- a/REGULAR/CHO/BATHAN, FRANNIE.xlsx
+++ b/REGULAR/CHO/BATHAN, FRANNIE.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="67">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1110,7 +1110,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1153,7 +1153,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1217,7 +1217,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1277,7 +1277,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1343,7 +1343,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1406,7 +1406,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1504,7 +1504,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1563,7 +1563,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1628,7 +1628,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1671,7 +1671,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1746,7 +1746,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1932,7 +1932,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1998,7 +1998,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2056,7 +2056,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2122,7 +2122,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2178,7 +2178,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2253,7 +2253,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2296,7 +2296,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2362,7 +2362,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2418,7 +2418,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2516,7 +2516,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2579,7 +2579,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3028,7 +3028,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A16" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="K32" sqref="K32"/>
+      <selection pane="bottomLeft" activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3191,7 +3191,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>4.4580000000000002</v>
+        <v>6.9580000000000002</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3201,7 +3201,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>1.875</v>
+        <v>3.375</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3719,15 +3719,17 @@
       <c r="B32" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="13"/>
+      <c r="C32" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D32" s="39">
         <v>1</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="20"/>
-      <c r="G32" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G32" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H32" s="39"/>
       <c r="I32" s="9"/>
@@ -3741,13 +3743,15 @@
         <v>45261</v>
       </c>
       <c r="B33" s="20"/>
-      <c r="C33" s="13"/>
+      <c r="C33" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D33" s="39"/>
       <c r="E33" s="9"/>
       <c r="F33" s="20"/>
-      <c r="G33" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G33" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H33" s="39"/>
       <c r="I33" s="9"/>
@@ -3776,7 +3780,9 @@
       <c r="A35" s="40">
         <v>45292</v>
       </c>
-      <c r="B35" s="20"/>
+      <c r="B35" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C35" s="13"/>
       <c r="D35" s="39"/>
       <c r="E35" s="9"/>
@@ -3785,10 +3791,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H35" s="39"/>
+      <c r="H35" s="39">
+        <v>1</v>
+      </c>
       <c r="I35" s="9"/>
       <c r="J35" s="11"/>
-      <c r="K35" s="20"/>
+      <c r="K35" s="48">
+        <v>45293</v>
+      </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
@@ -5636,7 +5646,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="50">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>6.3330000000000002</v>
+        <v>10.333</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/REGULAR/CHO/BATHAN, FRANNIE.xlsx
+++ b/REGULAR/CHO/BATHAN, FRANNIE.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="82">
   <si>
     <t>PERIOD</t>
   </si>
@@ -235,6 +235,51 @@
   </si>
   <si>
     <t>10/16,23-26/2023</t>
+  </si>
+  <si>
+    <t>A(2-0-0)</t>
+  </si>
+  <si>
+    <t>12/7,21/2023</t>
+  </si>
+  <si>
+    <t>11/16,17/2023</t>
+  </si>
+  <si>
+    <t>UT(0-0-9)</t>
+  </si>
+  <si>
+    <t>UT(0-0-41)</t>
+  </si>
+  <si>
+    <t>9/15,26/2023</t>
+  </si>
+  <si>
+    <t>UT(0-2-2)</t>
+  </si>
+  <si>
+    <t>A(3-0-0)</t>
+  </si>
+  <si>
+    <t>8/2,11,24/2023</t>
+  </si>
+  <si>
+    <t>UT(0-2-13)</t>
+  </si>
+  <si>
+    <t>UT(0-0-48)</t>
+  </si>
+  <si>
+    <t>UT(0-0-22)</t>
+  </si>
+  <si>
+    <t>A(5-0-0)</t>
+  </si>
+  <si>
+    <t>5/8-12/2023</t>
+  </si>
+  <si>
+    <t>UT(0-0-47)</t>
   </si>
 </sst>
 </file>
@@ -2645,7 +2690,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K139" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K148" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3023,12 +3068,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K139"/>
+  <dimension ref="A2:K148"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A16" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A18" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="K35" sqref="K35"/>
+      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3191,7 +3236,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>6.9580000000000002</v>
+        <v>-8.9210000000000029</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3575,19 +3620,19 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="40">
-        <v>45047</v>
-      </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D26" s="39"/>
+      <c r="A26" s="40"/>
+      <c r="B26" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="39">
+        <v>9.8000000000000004E-2</v>
+      </c>
       <c r="E26" s="9"/>
       <c r="F26" s="20"/>
-      <c r="G26" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G26" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H26" s="39"/>
       <c r="I26" s="9"/>
@@ -3596,35 +3641,37 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="C27" s="13">
         <v>1.25</v>
       </c>
-      <c r="D27" s="39"/>
+      <c r="D27" s="39">
+        <v>5</v>
+      </c>
       <c r="E27" s="9"/>
       <c r="F27" s="20"/>
       <c r="G27" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H27" s="39">
-        <v>1</v>
-      </c>
+      <c r="H27" s="39"/>
       <c r="I27" s="9"/>
       <c r="J27" s="11"/>
-      <c r="K27" s="48">
-        <v>45100</v>
+      <c r="K27" s="20" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
-        <v>45108</v>
-      </c>
-      <c r="B28" s="20"/>
+        <v>45078</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C28" s="13">
         <v>1.25</v>
       </c>
@@ -3635,46 +3682,48 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H28" s="39"/>
+      <c r="H28" s="39">
+        <v>1</v>
+      </c>
       <c r="I28" s="9"/>
       <c r="J28" s="11"/>
-      <c r="K28" s="20"/>
+      <c r="K28" s="48">
+        <v>45100</v>
+      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="40">
-        <v>45139</v>
-      </c>
+      <c r="A29" s="40"/>
       <c r="B29" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D29" s="39"/>
+        <v>78</v>
+      </c>
+      <c r="C29" s="13"/>
+      <c r="D29" s="39">
+        <v>4.6000000000000006E-2</v>
+      </c>
       <c r="E29" s="9"/>
       <c r="F29" s="20"/>
-      <c r="G29" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H29" s="39">
-        <v>2</v>
-      </c>
+      <c r="G29" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H29" s="39"/>
       <c r="I29" s="9"/>
       <c r="J29" s="11"/>
-      <c r="K29" s="20" t="s">
-        <v>63</v>
-      </c>
+      <c r="K29" s="48"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
-        <v>45170</v>
-      </c>
-      <c r="B30" s="20"/>
+        <v>45108</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>77</v>
+      </c>
       <c r="C30" s="13">
         <v>1.25</v>
       </c>
-      <c r="D30" s="39"/>
+      <c r="D30" s="39">
+        <v>0.1</v>
+      </c>
       <c r="E30" s="9"/>
       <c r="F30" s="20"/>
       <c r="G30" s="13">
@@ -3688,10 +3737,10 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
-        <v>45200</v>
+        <v>45139</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C31" s="13">
         <v>1.25</v>
@@ -3704,54 +3753,50 @@
         <v>1.25</v>
       </c>
       <c r="H31" s="39">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="11"/>
       <c r="K31" s="20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="40">
-        <v>45231</v>
-      </c>
+      <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C32" s="13">
-        <v>1.25</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="C32" s="13"/>
       <c r="D32" s="39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="20"/>
-      <c r="G32" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G32" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H32" s="39"/>
       <c r="I32" s="9"/>
       <c r="J32" s="11"/>
-      <c r="K32" s="48">
-        <v>45261</v>
+      <c r="K32" s="20" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="40">
-        <v>45261</v>
-      </c>
-      <c r="B33" s="20"/>
-      <c r="C33" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D33" s="39"/>
+      <c r="A33" s="40"/>
+      <c r="B33" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="13"/>
+      <c r="D33" s="39">
+        <v>0.27700000000000002</v>
+      </c>
       <c r="E33" s="9"/>
       <c r="F33" s="20"/>
-      <c r="G33" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G33" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H33" s="39"/>
       <c r="I33" s="9"/>
@@ -3759,72 +3804,86 @@
       <c r="K33" s="20"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="51" t="s">
-        <v>64</v>
-      </c>
-      <c r="B34" s="20"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="39"/>
+      <c r="A34" s="40">
+        <v>45170</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D34" s="39">
+        <v>2</v>
+      </c>
       <c r="E34" s="9"/>
       <c r="F34" s="20"/>
-      <c r="G34" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G34" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H34" s="39"/>
       <c r="I34" s="9"/>
       <c r="J34" s="11"/>
-      <c r="K34" s="20"/>
+      <c r="K34" s="20" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="40">
-        <v>45292</v>
-      </c>
+      <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="C35" s="13"/>
-      <c r="D35" s="39"/>
+      <c r="D35" s="39">
+        <v>0.254</v>
+      </c>
       <c r="E35" s="9"/>
       <c r="F35" s="20"/>
       <c r="G35" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H35" s="39">
-        <v>1</v>
-      </c>
+      <c r="H35" s="39"/>
       <c r="I35" s="9"/>
       <c r="J35" s="11"/>
-      <c r="K35" s="48">
-        <v>45293</v>
-      </c>
+      <c r="K35" s="20"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B36" s="20"/>
-      <c r="C36" s="13"/>
+        <v>45200</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D36" s="39"/>
       <c r="E36" s="9"/>
       <c r="F36" s="20"/>
-      <c r="G36" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H36" s="39"/>
+      <c r="G36" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H36" s="39">
+        <v>5</v>
+      </c>
       <c r="I36" s="9"/>
       <c r="J36" s="11"/>
-      <c r="K36" s="20"/>
+      <c r="K36" s="20" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="40">
-        <v>45352</v>
-      </c>
-      <c r="B37" s="20"/>
+      <c r="A37" s="40"/>
+      <c r="B37" s="20" t="s">
+        <v>60</v>
+      </c>
       <c r="C37" s="13"/>
-      <c r="D37" s="39"/>
+      <c r="D37" s="39">
+        <v>1</v>
+      </c>
       <c r="E37" s="9"/>
       <c r="F37" s="20"/>
       <c r="G37" s="13" t="str">
@@ -3834,15 +3893,19 @@
       <c r="H37" s="39"/>
       <c r="I37" s="9"/>
       <c r="J37" s="11"/>
-      <c r="K37" s="20"/>
+      <c r="K37" s="48">
+        <v>45201</v>
+      </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="40">
-        <v>45383</v>
-      </c>
-      <c r="B38" s="20"/>
+      <c r="A38" s="40"/>
+      <c r="B38" s="20" t="s">
+        <v>71</v>
+      </c>
       <c r="C38" s="13"/>
-      <c r="D38" s="39"/>
+      <c r="D38" s="39">
+        <v>8.500000000000002E-2</v>
+      </c>
       <c r="E38" s="9"/>
       <c r="F38" s="20"/>
       <c r="G38" s="13" t="str">
@@ -3852,33 +3915,43 @@
       <c r="H38" s="39"/>
       <c r="I38" s="9"/>
       <c r="J38" s="11"/>
-      <c r="K38" s="20"/>
+      <c r="K38" s="48"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
-        <v>45413</v>
-      </c>
-      <c r="B39" s="20"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="39"/>
+        <v>45231</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D39" s="39">
+        <v>1</v>
+      </c>
       <c r="E39" s="9"/>
       <c r="F39" s="20"/>
-      <c r="G39" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G39" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H39" s="39"/>
       <c r="I39" s="9"/>
       <c r="J39" s="11"/>
-      <c r="K39" s="20"/>
+      <c r="K39" s="48">
+        <v>45261</v>
+      </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="40">
-        <v>45444</v>
-      </c>
-      <c r="B40" s="20"/>
+      <c r="A40" s="40"/>
+      <c r="B40" s="20" t="s">
+        <v>67</v>
+      </c>
       <c r="C40" s="13"/>
-      <c r="D40" s="39"/>
+      <c r="D40" s="39">
+        <v>2</v>
+      </c>
       <c r="E40" s="9"/>
       <c r="F40" s="20"/>
       <c r="G40" s="13" t="str">
@@ -3888,15 +3961,19 @@
       <c r="H40" s="39"/>
       <c r="I40" s="9"/>
       <c r="J40" s="11"/>
-      <c r="K40" s="20"/>
+      <c r="K40" s="48" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="40">
-        <v>45474</v>
-      </c>
-      <c r="B41" s="20"/>
+      <c r="A41" s="40"/>
+      <c r="B41" s="20" t="s">
+        <v>70</v>
+      </c>
       <c r="C41" s="13"/>
-      <c r="D41" s="39"/>
+      <c r="D41" s="39">
+        <v>1.9000000000000003E-2</v>
+      </c>
       <c r="E41" s="9"/>
       <c r="F41" s="20"/>
       <c r="G41" s="13" t="str">
@@ -3906,28 +3983,38 @@
       <c r="H41" s="39"/>
       <c r="I41" s="9"/>
       <c r="J41" s="11"/>
-      <c r="K41" s="20"/>
+      <c r="K41" s="48"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
-        <v>45505</v>
-      </c>
-      <c r="B42" s="20"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="39"/>
+        <v>45261</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D42" s="39">
+        <v>2</v>
+      </c>
       <c r="E42" s="9"/>
       <c r="F42" s="20"/>
-      <c r="G42" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G42" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H42" s="39"/>
       <c r="I42" s="9"/>
       <c r="J42" s="11"/>
-      <c r="K42" s="20"/>
+      <c r="K42" s="20" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="40"/>
+      <c r="A43" s="51" t="s">
+        <v>64</v>
+      </c>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
       <c r="D43" s="39"/>
@@ -3943,8 +4030,12 @@
       <c r="K43" s="20"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="40"/>
-      <c r="B44" s="20"/>
+      <c r="A44" s="40">
+        <v>45292</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C44" s="13"/>
       <c r="D44" s="39"/>
       <c r="E44" s="9"/>
@@ -3953,13 +4044,19 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H44" s="39"/>
+      <c r="H44" s="39">
+        <v>1</v>
+      </c>
       <c r="I44" s="9"/>
       <c r="J44" s="11"/>
-      <c r="K44" s="20"/>
+      <c r="K44" s="48">
+        <v>45293</v>
+      </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="40"/>
+      <c r="A45" s="40">
+        <v>45323</v>
+      </c>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
       <c r="D45" s="39"/>
@@ -3975,7 +4072,9 @@
       <c r="K45" s="20"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="40"/>
+      <c r="A46" s="40">
+        <v>45352</v>
+      </c>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
       <c r="D46" s="39"/>
@@ -3991,7 +4090,9 @@
       <c r="K46" s="20"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="40"/>
+      <c r="A47" s="40">
+        <v>45383</v>
+      </c>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
       <c r="D47" s="39"/>
@@ -4007,7 +4108,9 @@
       <c r="K47" s="20"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="40"/>
+      <c r="A48" s="40">
+        <v>45413</v>
+      </c>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
       <c r="D48" s="39"/>
@@ -4023,7 +4126,9 @@
       <c r="K48" s="20"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="40"/>
+      <c r="A49" s="40">
+        <v>45444</v>
+      </c>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
       <c r="D49" s="39"/>
@@ -4039,7 +4144,9 @@
       <c r="K49" s="20"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="40"/>
+      <c r="A50" s="40">
+        <v>45474</v>
+      </c>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
       <c r="D50" s="39"/>
@@ -4055,7 +4162,9 @@
       <c r="K50" s="20"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="40"/>
+      <c r="A51" s="40">
+        <v>45505</v>
+      </c>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
       <c r="D51" s="39"/>
@@ -5447,36 +5556,180 @@
       <c r="K137" s="20"/>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A138" s="41"/>
-      <c r="B138" s="15"/>
-      <c r="C138" s="42"/>
-      <c r="D138" s="43"/>
+      <c r="A138" s="40"/>
+      <c r="B138" s="20"/>
+      <c r="C138" s="13"/>
+      <c r="D138" s="39"/>
       <c r="E138" s="9"/>
-      <c r="F138" s="15"/>
-      <c r="G138" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H138" s="43"/>
+      <c r="F138" s="20"/>
+      <c r="G138" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H138" s="39"/>
       <c r="I138" s="9"/>
-      <c r="J138" s="12"/>
-      <c r="K138" s="15"/>
+      <c r="J138" s="11"/>
+      <c r="K138" s="20"/>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A139" s="41"/>
-      <c r="B139" s="15"/>
-      <c r="C139" s="42"/>
-      <c r="D139" s="43"/>
-      <c r="E139" s="49"/>
-      <c r="F139" s="15"/>
-      <c r="G139" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H139" s="43"/>
-      <c r="I139" s="49"/>
-      <c r="J139" s="12"/>
-      <c r="K139" s="15"/>
+      <c r="A139" s="40"/>
+      <c r="B139" s="20"/>
+      <c r="C139" s="13"/>
+      <c r="D139" s="39"/>
+      <c r="E139" s="9"/>
+      <c r="F139" s="20"/>
+      <c r="G139" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H139" s="39"/>
+      <c r="I139" s="9"/>
+      <c r="J139" s="11"/>
+      <c r="K139" s="20"/>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A140" s="40"/>
+      <c r="B140" s="20"/>
+      <c r="C140" s="13"/>
+      <c r="D140" s="39"/>
+      <c r="E140" s="9"/>
+      <c r="F140" s="20"/>
+      <c r="G140" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H140" s="39"/>
+      <c r="I140" s="9"/>
+      <c r="J140" s="11"/>
+      <c r="K140" s="20"/>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A141" s="40"/>
+      <c r="B141" s="20"/>
+      <c r="C141" s="13"/>
+      <c r="D141" s="39"/>
+      <c r="E141" s="9"/>
+      <c r="F141" s="20"/>
+      <c r="G141" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H141" s="39"/>
+      <c r="I141" s="9"/>
+      <c r="J141" s="11"/>
+      <c r="K141" s="20"/>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A142" s="40"/>
+      <c r="B142" s="20"/>
+      <c r="C142" s="13"/>
+      <c r="D142" s="39"/>
+      <c r="E142" s="9"/>
+      <c r="F142" s="20"/>
+      <c r="G142" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H142" s="39"/>
+      <c r="I142" s="9"/>
+      <c r="J142" s="11"/>
+      <c r="K142" s="20"/>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A143" s="40"/>
+      <c r="B143" s="20"/>
+      <c r="C143" s="13"/>
+      <c r="D143" s="39"/>
+      <c r="E143" s="9"/>
+      <c r="F143" s="20"/>
+      <c r="G143" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H143" s="39"/>
+      <c r="I143" s="9"/>
+      <c r="J143" s="11"/>
+      <c r="K143" s="20"/>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A144" s="40"/>
+      <c r="B144" s="20"/>
+      <c r="C144" s="13"/>
+      <c r="D144" s="39"/>
+      <c r="E144" s="9"/>
+      <c r="F144" s="20"/>
+      <c r="G144" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H144" s="39"/>
+      <c r="I144" s="9"/>
+      <c r="J144" s="11"/>
+      <c r="K144" s="20"/>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A145" s="40"/>
+      <c r="B145" s="20"/>
+      <c r="C145" s="13"/>
+      <c r="D145" s="39"/>
+      <c r="E145" s="9"/>
+      <c r="F145" s="20"/>
+      <c r="G145" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H145" s="39"/>
+      <c r="I145" s="9"/>
+      <c r="J145" s="11"/>
+      <c r="K145" s="20"/>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A146" s="40"/>
+      <c r="B146" s="20"/>
+      <c r="C146" s="13"/>
+      <c r="D146" s="39"/>
+      <c r="E146" s="9"/>
+      <c r="F146" s="20"/>
+      <c r="G146" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H146" s="39"/>
+      <c r="I146" s="9"/>
+      <c r="J146" s="11"/>
+      <c r="K146" s="20"/>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A147" s="41"/>
+      <c r="B147" s="15"/>
+      <c r="C147" s="42"/>
+      <c r="D147" s="43"/>
+      <c r="E147" s="9"/>
+      <c r="F147" s="15"/>
+      <c r="G147" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H147" s="43"/>
+      <c r="I147" s="9"/>
+      <c r="J147" s="12"/>
+      <c r="K147" s="15"/>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A148" s="41"/>
+      <c r="B148" s="15"/>
+      <c r="C148" s="42"/>
+      <c r="D148" s="43"/>
+      <c r="E148" s="49"/>
+      <c r="F148" s="15"/>
+      <c r="G148" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H148" s="43"/>
+      <c r="I148" s="49"/>
+      <c r="J148" s="12"/>
+      <c r="K148" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5587,15 +5840,13 @@
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3"/>
-      <c r="E3">
-        <v>0</v>
-      </c>
+      <c r="E3"/>
       <c r="F3">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="G3" s="47">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>5.000000000000001E-2</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="J3" s="1">
         <v>16</v>
@@ -5646,7 +5897,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="50">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>10.333</v>
+        <v>-5.5460000000000029</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/REGULAR/CHO/BATHAN, FRANNIE.xlsx
+++ b/REGULAR/CHO/BATHAN, FRANNIE.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="85">
   <si>
     <t>PERIOD</t>
   </si>
@@ -280,6 +280,15 @@
   </si>
   <si>
     <t>UT(0-0-47)</t>
+  </si>
+  <si>
+    <t>UT(0-1-53)</t>
+  </si>
+  <si>
+    <t>UT(0-2-12)</t>
+  </si>
+  <si>
+    <t>UT(0-1-22)</t>
   </si>
 </sst>
 </file>
@@ -1155,7 +1164,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1198,7 +1207,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1262,7 +1271,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1322,7 +1331,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1388,7 +1397,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1451,7 +1460,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1549,7 +1558,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1608,7 +1617,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1673,7 +1682,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1716,7 +1725,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1791,7 +1800,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1977,7 +1986,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2043,7 +2052,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2101,7 +2110,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2167,7 +2176,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2223,7 +2232,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2298,7 +2307,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2341,7 +2350,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2407,7 +2416,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2463,7 +2472,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2561,7 +2570,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2624,7 +2633,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2690,7 +2699,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K148" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K152" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3068,12 +3077,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K148"/>
+  <dimension ref="A2:K152"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A18" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
+      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3236,7 +3245,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>-8.9210000000000029</v>
+        <v>-10.602</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3520,65 +3529,59 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="40">
-        <v>44958</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D22" s="43">
-        <v>1</v>
+      <c r="A22" s="40"/>
+      <c r="B22" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="39">
+        <v>0.17100000000000001</v>
       </c>
       <c r="E22" s="9"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="42">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H22" s="43"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H22" s="39"/>
       <c r="I22" s="9"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="52">
-        <v>44988</v>
-      </c>
+      <c r="J22" s="11"/>
+      <c r="K22" s="48"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
-        <v>44986</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>53</v>
+        <v>44958</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>52</v>
       </c>
       <c r="C23" s="13">
         <v>1.25</v>
       </c>
-      <c r="D23" s="39">
-        <v>2</v>
+      <c r="D23" s="43">
+        <v>1</v>
       </c>
       <c r="E23" s="9"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="13">
+      <c r="F23" s="15"/>
+      <c r="G23" s="42">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H23" s="39"/>
+      <c r="H23" s="43"/>
       <c r="I23" s="9"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="20" t="s">
-        <v>54</v>
+      <c r="J23" s="12"/>
+      <c r="K23" s="52">
+        <v>44988</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="20" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="39">
-        <v>2</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="20"/>
@@ -3589,44 +3592,42 @@
       <c r="H24" s="39"/>
       <c r="I24" s="9"/>
       <c r="J24" s="11"/>
-      <c r="K24" s="20" t="s">
-        <v>55</v>
-      </c>
+      <c r="K24" s="48"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
-        <v>45017</v>
+        <v>44986</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C25" s="13">
         <v>1.25</v>
       </c>
-      <c r="D25" s="39"/>
+      <c r="D25" s="39">
+        <v>2</v>
+      </c>
       <c r="E25" s="9"/>
       <c r="F25" s="20"/>
       <c r="G25" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H25" s="39">
-        <v>2</v>
-      </c>
+      <c r="H25" s="39"/>
       <c r="I25" s="9"/>
       <c r="J25" s="11"/>
       <c r="K25" s="20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="39">
-        <v>9.8000000000000004E-2</v>
+        <v>2</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="20"/>
@@ -3637,98 +3638,92 @@
       <c r="H26" s="39"/>
       <c r="I26" s="9"/>
       <c r="J26" s="11"/>
-      <c r="K26" s="20"/>
+      <c r="K26" s="20" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="40">
-        <v>45047</v>
-      </c>
+      <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="C27" s="13">
-        <v>1.25</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C27" s="13"/>
       <c r="D27" s="39">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="20"/>
-      <c r="G27" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G27" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H27" s="39"/>
       <c r="I27" s="9"/>
       <c r="J27" s="11"/>
-      <c r="K27" s="20" t="s">
-        <v>80</v>
+      <c r="K27" s="48">
+        <v>44995</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="40">
-        <v>45078</v>
-      </c>
+      <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D28" s="39"/>
+        <v>82</v>
+      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="39">
+        <v>0.23500000000000001</v>
+      </c>
       <c r="E28" s="9"/>
       <c r="F28" s="20"/>
-      <c r="G28" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H28" s="39">
-        <v>1</v>
-      </c>
+      <c r="G28" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H28" s="39"/>
       <c r="I28" s="9"/>
       <c r="J28" s="11"/>
-      <c r="K28" s="48">
-        <v>45100</v>
-      </c>
+      <c r="K28" s="48"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="40"/>
+      <c r="A29" s="40">
+        <v>45017</v>
+      </c>
       <c r="B29" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="39">
-        <v>4.6000000000000006E-2</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="C29" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D29" s="39"/>
       <c r="E29" s="9"/>
       <c r="F29" s="20"/>
-      <c r="G29" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H29" s="39"/>
+      <c r="G29" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H29" s="39">
+        <v>2</v>
+      </c>
       <c r="I29" s="9"/>
       <c r="J29" s="11"/>
-      <c r="K29" s="48"/>
+      <c r="K29" s="20" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="40">
-        <v>45108</v>
-      </c>
+      <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="C30" s="13">
-        <v>1.25</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="C30" s="13"/>
       <c r="D30" s="39">
-        <v>0.1</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="20"/>
-      <c r="G30" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G30" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H30" s="39"/>
       <c r="I30" s="9"/>
@@ -3737,60 +3732,64 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
-        <v>45139</v>
+        <v>45047</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="C31" s="13">
         <v>1.25</v>
       </c>
-      <c r="D31" s="39"/>
+      <c r="D31" s="39">
+        <v>5</v>
+      </c>
       <c r="E31" s="9"/>
       <c r="F31" s="20"/>
       <c r="G31" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H31" s="39">
-        <v>2</v>
-      </c>
+      <c r="H31" s="39"/>
       <c r="I31" s="9"/>
       <c r="J31" s="11"/>
       <c r="K31" s="20" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="40"/>
+      <c r="A32" s="40">
+        <v>45078</v>
+      </c>
       <c r="B32" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="39">
-        <v>3</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="C32" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D32" s="39"/>
       <c r="E32" s="9"/>
       <c r="F32" s="20"/>
-      <c r="G32" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H32" s="39"/>
+      <c r="G32" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H32" s="39">
+        <v>1</v>
+      </c>
       <c r="I32" s="9"/>
       <c r="J32" s="11"/>
-      <c r="K32" s="20" t="s">
-        <v>75</v>
+      <c r="K32" s="48">
+        <v>45100</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
       <c r="B33" s="20" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C33" s="13"/>
       <c r="D33" s="39">
-        <v>0.27700000000000002</v>
+        <v>4.6000000000000006E-2</v>
       </c>
       <c r="E33" s="9"/>
       <c r="F33" s="20"/>
@@ -3801,20 +3800,20 @@
       <c r="H33" s="39"/>
       <c r="I33" s="9"/>
       <c r="J33" s="11"/>
-      <c r="K33" s="20"/>
+      <c r="K33" s="48"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
-        <v>45170</v>
+        <v>45108</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="C34" s="13">
         <v>1.25</v>
       </c>
       <c r="D34" s="39">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="20"/>
@@ -3825,64 +3824,64 @@
       <c r="H34" s="39"/>
       <c r="I34" s="9"/>
       <c r="J34" s="11"/>
-      <c r="K34" s="20" t="s">
-        <v>72</v>
-      </c>
+      <c r="K34" s="20"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="40"/>
+      <c r="A35" s="40">
+        <v>45139</v>
+      </c>
       <c r="B35" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="39">
-        <v>0.254</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="C35" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D35" s="39"/>
       <c r="E35" s="9"/>
       <c r="F35" s="20"/>
-      <c r="G35" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H35" s="39"/>
+      <c r="G35" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H35" s="39">
+        <v>2</v>
+      </c>
       <c r="I35" s="9"/>
       <c r="J35" s="11"/>
-      <c r="K35" s="20"/>
+      <c r="K35" s="20" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="40">
-        <v>45200</v>
-      </c>
+      <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C36" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D36" s="39"/>
+        <v>74</v>
+      </c>
+      <c r="C36" s="13"/>
+      <c r="D36" s="39">
+        <v>3</v>
+      </c>
       <c r="E36" s="9"/>
       <c r="F36" s="20"/>
-      <c r="G36" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H36" s="39">
-        <v>5</v>
-      </c>
+      <c r="G36" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H36" s="39"/>
       <c r="I36" s="9"/>
       <c r="J36" s="11"/>
       <c r="K36" s="20" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="39">
-        <v>1</v>
+        <v>0.27700000000000002</v>
       </c>
       <c r="E37" s="9"/>
       <c r="F37" s="20"/>
@@ -3893,86 +3892,88 @@
       <c r="H37" s="39"/>
       <c r="I37" s="9"/>
       <c r="J37" s="11"/>
-      <c r="K37" s="48">
-        <v>45201</v>
-      </c>
+      <c r="K37" s="20"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="40"/>
+      <c r="A38" s="40">
+        <v>45170</v>
+      </c>
       <c r="B38" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="C38" s="13"/>
+        <v>67</v>
+      </c>
+      <c r="C38" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D38" s="39">
-        <v>8.500000000000002E-2</v>
+        <v>2</v>
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="20"/>
-      <c r="G38" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G38" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H38" s="39"/>
       <c r="I38" s="9"/>
       <c r="J38" s="11"/>
-      <c r="K38" s="48"/>
+      <c r="K38" s="20" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="40">
-        <v>45231</v>
-      </c>
+      <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C39" s="13">
-        <v>1.25</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="C39" s="13"/>
       <c r="D39" s="39">
-        <v>1</v>
+        <v>0.254</v>
       </c>
       <c r="E39" s="9"/>
       <c r="F39" s="20"/>
-      <c r="G39" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G39" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H39" s="39"/>
       <c r="I39" s="9"/>
       <c r="J39" s="11"/>
-      <c r="K39" s="48">
-        <v>45261</v>
-      </c>
+      <c r="K39" s="20"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="40"/>
+      <c r="A40" s="40">
+        <v>45200</v>
+      </c>
       <c r="B40" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C40" s="13"/>
-      <c r="D40" s="39">
-        <v>2</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="C40" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D40" s="39"/>
       <c r="E40" s="9"/>
       <c r="F40" s="20"/>
-      <c r="G40" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H40" s="39"/>
+      <c r="G40" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H40" s="39">
+        <v>5</v>
+      </c>
       <c r="I40" s="9"/>
       <c r="J40" s="11"/>
-      <c r="K40" s="48" t="s">
-        <v>69</v>
+      <c r="K40" s="20" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C41" s="13"/>
       <c r="D41" s="39">
-        <v>1.9000000000000003E-2</v>
+        <v>1</v>
       </c>
       <c r="E41" s="9"/>
       <c r="F41" s="20"/>
@@ -3983,83 +3984,87 @@
       <c r="H41" s="39"/>
       <c r="I41" s="9"/>
       <c r="J41" s="11"/>
-      <c r="K41" s="48"/>
+      <c r="K41" s="48">
+        <v>45201</v>
+      </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="40">
-        <v>45261</v>
-      </c>
+      <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C42" s="13">
-        <v>1.25</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="C42" s="13"/>
       <c r="D42" s="39">
-        <v>2</v>
+        <v>8.500000000000002E-2</v>
       </c>
       <c r="E42" s="9"/>
       <c r="F42" s="20"/>
-      <c r="G42" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G42" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H42" s="39"/>
       <c r="I42" s="9"/>
       <c r="J42" s="11"/>
-      <c r="K42" s="20" t="s">
-        <v>68</v>
-      </c>
+      <c r="K42" s="48"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="51" t="s">
-        <v>64</v>
-      </c>
-      <c r="B43" s="20"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="39"/>
+      <c r="A43" s="40">
+        <v>45231</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D43" s="39">
+        <v>1</v>
+      </c>
       <c r="E43" s="9"/>
       <c r="F43" s="20"/>
-      <c r="G43" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G43" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H43" s="39"/>
       <c r="I43" s="9"/>
       <c r="J43" s="11"/>
-      <c r="K43" s="20"/>
+      <c r="K43" s="48">
+        <v>45261</v>
+      </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="40">
-        <v>45292</v>
-      </c>
+      <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="C44" s="13"/>
-      <c r="D44" s="39"/>
+      <c r="D44" s="39">
+        <v>2</v>
+      </c>
       <c r="E44" s="9"/>
       <c r="F44" s="20"/>
       <c r="G44" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H44" s="39">
-        <v>1</v>
-      </c>
+      <c r="H44" s="39"/>
       <c r="I44" s="9"/>
       <c r="J44" s="11"/>
-      <c r="K44" s="48">
-        <v>45293</v>
+      <c r="K44" s="48" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B45" s="20"/>
+      <c r="A45" s="40"/>
+      <c r="B45" s="20" t="s">
+        <v>70</v>
+      </c>
       <c r="C45" s="13"/>
-      <c r="D45" s="39"/>
+      <c r="D45" s="39">
+        <v>1.9000000000000003E-2</v>
+      </c>
       <c r="E45" s="9"/>
       <c r="F45" s="20"/>
       <c r="G45" s="13" t="str">
@@ -4069,29 +4074,37 @@
       <c r="H45" s="39"/>
       <c r="I45" s="9"/>
       <c r="J45" s="11"/>
-      <c r="K45" s="20"/>
+      <c r="K45" s="48"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
-        <v>45352</v>
-      </c>
-      <c r="B46" s="20"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="39"/>
+        <v>45261</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D46" s="39">
+        <v>2</v>
+      </c>
       <c r="E46" s="9"/>
       <c r="F46" s="20"/>
-      <c r="G46" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G46" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H46" s="39"/>
       <c r="I46" s="9"/>
       <c r="J46" s="11"/>
-      <c r="K46" s="20"/>
+      <c r="K46" s="20" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="40">
-        <v>45383</v>
+      <c r="A47" s="51" t="s">
+        <v>64</v>
       </c>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -4109,9 +4122,11 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
-        <v>45413</v>
-      </c>
-      <c r="B48" s="20"/>
+        <v>45292</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C48" s="13"/>
       <c r="D48" s="39"/>
       <c r="E48" s="9"/>
@@ -4120,14 +4135,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H48" s="39"/>
+      <c r="H48" s="39">
+        <v>1</v>
+      </c>
       <c r="I48" s="9"/>
       <c r="J48" s="11"/>
-      <c r="K48" s="20"/>
+      <c r="K48" s="48">
+        <v>45293</v>
+      </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
-        <v>45444</v>
+        <v>45323</v>
       </c>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -4145,7 +4164,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
-        <v>45474</v>
+        <v>45352</v>
       </c>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -4163,7 +4182,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
-        <v>45505</v>
+        <v>45383</v>
       </c>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -4180,7 +4199,9 @@
       <c r="K51" s="20"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="40"/>
+      <c r="A52" s="40">
+        <v>45413</v>
+      </c>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
       <c r="D52" s="39"/>
@@ -4196,7 +4217,9 @@
       <c r="K52" s="20"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="40"/>
+      <c r="A53" s="40">
+        <v>45444</v>
+      </c>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
       <c r="D53" s="39"/>
@@ -4212,7 +4235,9 @@
       <c r="K53" s="20"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="40"/>
+      <c r="A54" s="40">
+        <v>45474</v>
+      </c>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
       <c r="D54" s="39"/>
@@ -4228,7 +4253,9 @@
       <c r="K54" s="20"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="40"/>
+      <c r="A55" s="40">
+        <v>45505</v>
+      </c>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
       <c r="D55" s="39"/>
@@ -5700,36 +5727,100 @@
       <c r="K146" s="20"/>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A147" s="41"/>
-      <c r="B147" s="15"/>
-      <c r="C147" s="42"/>
-      <c r="D147" s="43"/>
+      <c r="A147" s="40"/>
+      <c r="B147" s="20"/>
+      <c r="C147" s="13"/>
+      <c r="D147" s="39"/>
       <c r="E147" s="9"/>
-      <c r="F147" s="15"/>
-      <c r="G147" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H147" s="43"/>
+      <c r="F147" s="20"/>
+      <c r="G147" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H147" s="39"/>
       <c r="I147" s="9"/>
-      <c r="J147" s="12"/>
-      <c r="K147" s="15"/>
+      <c r="J147" s="11"/>
+      <c r="K147" s="20"/>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A148" s="41"/>
-      <c r="B148" s="15"/>
-      <c r="C148" s="42"/>
-      <c r="D148" s="43"/>
-      <c r="E148" s="49"/>
-      <c r="F148" s="15"/>
-      <c r="G148" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H148" s="43"/>
-      <c r="I148" s="49"/>
-      <c r="J148" s="12"/>
-      <c r="K148" s="15"/>
+      <c r="A148" s="40"/>
+      <c r="B148" s="20"/>
+      <c r="C148" s="13"/>
+      <c r="D148" s="39"/>
+      <c r="E148" s="9"/>
+      <c r="F148" s="20"/>
+      <c r="G148" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H148" s="39"/>
+      <c r="I148" s="9"/>
+      <c r="J148" s="11"/>
+      <c r="K148" s="20"/>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A149" s="40"/>
+      <c r="B149" s="20"/>
+      <c r="C149" s="13"/>
+      <c r="D149" s="39"/>
+      <c r="E149" s="9"/>
+      <c r="F149" s="20"/>
+      <c r="G149" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H149" s="39"/>
+      <c r="I149" s="9"/>
+      <c r="J149" s="11"/>
+      <c r="K149" s="20"/>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A150" s="40"/>
+      <c r="B150" s="20"/>
+      <c r="C150" s="13"/>
+      <c r="D150" s="39"/>
+      <c r="E150" s="9"/>
+      <c r="F150" s="20"/>
+      <c r="G150" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H150" s="39"/>
+      <c r="I150" s="9"/>
+      <c r="J150" s="11"/>
+      <c r="K150" s="20"/>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A151" s="41"/>
+      <c r="B151" s="15"/>
+      <c r="C151" s="42"/>
+      <c r="D151" s="43"/>
+      <c r="E151" s="9"/>
+      <c r="F151" s="15"/>
+      <c r="G151" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H151" s="43"/>
+      <c r="I151" s="9"/>
+      <c r="J151" s="12"/>
+      <c r="K151" s="15"/>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A152" s="41"/>
+      <c r="B152" s="15"/>
+      <c r="C152" s="42"/>
+      <c r="D152" s="43"/>
+      <c r="E152" s="49"/>
+      <c r="F152" s="15"/>
+      <c r="G152" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H152" s="43"/>
+      <c r="I152" s="49"/>
+      <c r="J152" s="12"/>
+      <c r="K152" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5840,13 +5931,15 @@
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3"/>
-      <c r="E3"/>
+      <c r="E3">
+        <v>1</v>
+      </c>
       <c r="F3">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="G3" s="47">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>9.8000000000000004E-2</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="J3" s="1">
         <v>16</v>
@@ -5897,7 +5990,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="50">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>-5.5460000000000029</v>
+        <v>-7.2270000000000003</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
